--- a/SWASH.xlsx
+++ b/SWASH.xlsx
@@ -11,23 +11,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t/>
   </si>
   <si>
+    <t>20141062</t>
+  </si>
+  <si>
+    <t>SQ CHUNKY CUPID 3X26</t>
+  </si>
+  <si>
+    <t>SWASH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TG,(E-1B)</t>
+  </si>
+  <si>
+    <t>10036987</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO CASHEW 52G</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20093135</t>
+  </si>
+  <si>
+    <t>BENG-BENG SHR IT 10S</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20130152</t>
+  </si>
+  <si>
+    <t>LEMONILO BROWNIES 33</t>
+  </si>
+  <si>
+    <t>10000213</t>
+  </si>
+  <si>
+    <t>GLICO POCKY CHO 47GR</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20046198</t>
+  </si>
+  <si>
+    <t>SNICKERS CHOCOLAT 51</t>
+  </si>
+  <si>
+    <t>20139890</t>
+  </si>
+  <si>
+    <t>WNHAE STRW CHEESCAKE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20085730</t>
+  </si>
+  <si>
+    <t>IDM CASH MILK CHO 40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>10003485</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO ALMOND 52G</t>
+  </si>
+  <si>
+    <t>20039717</t>
+  </si>
+  <si>
+    <t>CADBURY DAIRY MLK 57</t>
+  </si>
+  <si>
+    <t>20072367</t>
+  </si>
+  <si>
+    <t>CADBURY CSHW NUT 57G</t>
+  </si>
+  <si>
+    <t>20116112</t>
+  </si>
+  <si>
+    <t>MAXICORN BBQ 140G</t>
+  </si>
+  <si>
+    <t>RT,(E-14H)</t>
+  </si>
+  <si>
+    <t>10002101</t>
+  </si>
+  <si>
+    <t>HAPPYTOS CHIP MRH140</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20092857</t>
+  </si>
+  <si>
+    <t>STT FRENCH FRIES 130</t>
+  </si>
+  <si>
+    <t>20024699</t>
+  </si>
+  <si>
+    <t>STT FRENCH FRIES 62G</t>
+  </si>
+  <si>
+    <t>20092063</t>
+  </si>
+  <si>
+    <t>CHITATO SAPI PGG 115</t>
+  </si>
+  <si>
+    <t>20116675</t>
+  </si>
+  <si>
+    <t>CHTATO LITE NORI 115</t>
+  </si>
+  <si>
+    <t>10001094</t>
+  </si>
+  <si>
+    <t>CHITATO SAPI PGG 65G</t>
+  </si>
+  <si>
+    <t>20116670</t>
+  </si>
+  <si>
+    <t>CHTATO LITE NORI 65G</t>
+  </si>
+  <si>
     <t>20046081</t>
   </si>
   <si>
     <t>G/D 3IN1 MCCINO 10'S</t>
   </si>
   <si>
-    <t>SWASH</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>RT,(E-4B)</t>
   </si>
   <si>
@@ -37,100 +181,22 @@
     <t>LUWAK WHT ORGL 9X20</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
     <t>10038932</t>
   </si>
   <si>
     <t>KPL API SPC MIX 10'S</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>10008882</t>
   </si>
   <si>
     <t>K/API KOPI SPCL 150G</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>20136451</t>
   </si>
   <si>
     <t>NSCAFE AMERICANO 10S</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20116112</t>
-  </si>
-  <si>
-    <t>MAXICORN BBQ 140G</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>10002101</t>
-  </si>
-  <si>
-    <t>HAPPYTOS CHIP MRH140</t>
-  </si>
-  <si>
-    <t>20092857</t>
-  </si>
-  <si>
-    <t>STT FRENCH FRIES 130</t>
-  </si>
-  <si>
-    <t>20024699</t>
-  </si>
-  <si>
-    <t>STT FRENCH FRIES 62G</t>
-  </si>
-  <si>
-    <t>20092063</t>
-  </si>
-  <si>
-    <t>CHITATO SAPI PGG 115</t>
-  </si>
-  <si>
-    <t>20116675</t>
-  </si>
-  <si>
-    <t>CHTATO LITE NORI 115</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10001094</t>
-  </si>
-  <si>
-    <t>CHITATO SAPI PGG 65G</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20116670</t>
-  </si>
-  <si>
-    <t>CHTATO LITE NORI 65G</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -523,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -604,13 +670,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,70 +690,70 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -695,22 +761,22 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,13 +810,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,53 +830,273 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/SWASH.xlsx
+++ b/SWASH.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t/>
   </si>
@@ -31,13 +31,22 @@
     <t>TG,(E-1B)</t>
   </si>
   <si>
+    <t>20141063</t>
+  </si>
+  <si>
+    <t>SQ CSHW BTRFLY 3X22G</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>10036987</t>
   </si>
   <si>
     <t>S/Q CHOCO CASHEW 52G</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>RT,(E-1B)</t>
@@ -64,9 +73,6 @@
     <t>GLICO POCKY CHO 47GR</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>20046198</t>
   </si>
   <si>
@@ -103,13 +109,13 @@
     <t>20039717</t>
   </si>
   <si>
-    <t>CADBURY DAIRY MLK 57</t>
+    <t>CADBURY DAIRY MLK 52</t>
   </si>
   <si>
     <t>20072367</t>
   </si>
   <si>
-    <t>CADBURY CSHW NUT 57G</t>
+    <t>CADBURY CSHW NUT 52G</t>
   </si>
   <si>
     <t>20116112</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -656,27 +662,27 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,33 +696,33 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,13 +736,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,53 +756,53 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,13 +816,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,13 +836,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,21 +856,21 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -873,18 +879,18 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -893,10 +899,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,13 +936,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,13 +956,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,13 +976,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,33 +1016,33 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,10 +1059,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,10 +1079,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1099,30 @@
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
